--- a/Data/Reunion - 1985186461/1985186461.xlsx
+++ b/Data/Reunion - 1985186461/1985186461.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\Reunion - 1985186461\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF6F614-42B6-4B3E-9E15-D6D6E1B1C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CF6BCF-BF3B-460C-A766-8DDD1018967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Merge_RKTM" sheetId="2" r:id="rId2"/>
+    <sheet name="Merge_RimKr" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,307 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>강석진</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{82888723-D56E-43F5-874E-A3D52F8D31A9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>주의주의</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>&gt;&gt;&gt;&gt;</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시트는</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>적용된</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데이터와</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>다릅니다</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>&lt;&lt;&lt;&lt;</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>주의주의
-까보니깐</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>노드</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>식질이</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필요해서</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기존</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자료만</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>모아두고</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유기해둠</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="199">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -661,16 +363,10 @@
     <t>TraitDef</t>
   </si>
   <si>
-    <t>ReunionCharacter.degreeDatas.0.label</t>
-  </si>
-  <si>
     <t>Ally</t>
   </si>
   <si>
     <t>TraitDef+ReunionCharacter.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>ReunionCharacter.degreeDatas.0.description</t>
   </si>
   <si>
     <t>[PAWN_nameDef] is an ally who will one day join your faction.</t>
@@ -896,9 +592,6 @@
     <t>적에게 붙잡힌 수감자입니다. 구해주면 당신에게 합류할 것입니다.</t>
   </si>
   <si>
-    <t>TraitDef+ReunionCharacter.degreeDatas.Reunion_Ally.label</t>
-  </si>
-  <si>
     <t>(Reunion) Ally</t>
   </si>
   <si>
@@ -917,6 +610,43 @@
   </si>
   <si>
     <t>결과 노드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RimKr [Not chosen]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>재회</t>
+  </si>
+  <si>
+    <t>우린 다시 만나게 될 겁니다.</t>
+  </si>
+  <si>
+    <t>RKTM [Mod] &lt;- RimKr [Not chosen]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraitDef+ReunionCharacter.degreeDatas.Reunion_Ally.label</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ReunionCharacter.degreeDatas.0.label</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReunionCharacter.degreeDatas.0.description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 안 함</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>임무 만료: [resolvedQuestName]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +654,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,21 +701,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1390,11 +1105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1403,12 +1118,14 @@
     <col min="2" max="2" width="17.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.4140625" customWidth="1"/>
-    <col min="5" max="5" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,10 +1145,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1444,16 +1167,26 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="str">
-        <f>IFERROR(VLOOKUP(A2,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A2,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>무력화된 난민</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" t="e">
+        <f>VLOOKUP(A2,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IFERROR(IFERROR(H2,G2),"")</f>
+        <v>무력화된 난민</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1466,16 +1199,26 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="str">
-        <f>IFERROR(VLOOKUP(A3,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A3,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>조난당해 무력한 난민이 당신에게 도움을 요청합니다.</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" t="e">
+        <f>VLOOKUP(A3,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I46" si="0">IFERROR(IFERROR(H3,G3),"")</f>
+        <v>조난당해 무력한 난민이 당신에게 도움을 요청합니다.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1488,16 +1231,26 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="str">
-        <f>IFERROR(VLOOKUP(A4,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A4,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>죄수 감옥</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" t="e">
+        <f>VLOOKUP(A4,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>죄수 감옥</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1510,16 +1263,26 @@
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="str">
-        <f>IFERROR(VLOOKUP(A5,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A5,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>적에게 붙잡힌 수감자입니다. 구해주면 당신에게 합류할 것입니다.</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" t="e">
+        <f>VLOOKUP(A5,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>적에게 붙잡힌 수감자입니다. 구해주면 당신에게 합류할 것입니다.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1532,13 +1295,23 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="G6" t="str">
-        <f>IFERROR(VLOOKUP(A6,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A6,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>아군 합류</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" t="e">
+        <f>VLOOKUP(A6,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>아군 합류</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1551,13 +1324,23 @@
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="G7" t="str">
-        <f>IFERROR(VLOOKUP(A7,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A7,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>재회 - {PAWN_nameDef}</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" t="e">
+        <f>VLOOKUP(A7,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>재회 - {PAWN_nameDef}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1570,13 +1353,23 @@
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="G8" t="str">
-        <f>IFERROR(VLOOKUP(A8,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A8,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>{PAWN_title} {PAWN_nameDef}(이)가 당신의 정착지에 합류했습니다.</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" t="e">
+        <f>VLOOKUP(A8,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>{PAWN_title} {PAWN_nameDef}(이)가 당신의 정착지에 합류했습니다.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1589,13 +1382,23 @@
       <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="G9" t="str">
-        <f>IFERROR(VLOOKUP(A9,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A9,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>아군의 추락한 수송포드</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" t="e">
+        <f>VLOOKUP(A9,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>아군의 추락한 수송포드</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1608,13 +1411,23 @@
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="G10" t="str">
-        <f>IFERROR(VLOOKUP(A10,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A10,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>재회 - {PAWN_nameDef}</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" t="e">
+        <f>VLOOKUP(A10,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>재회 - {PAWN_nameDef}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1627,13 +1440,23 @@
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="G11" t="str">
-        <f>IFERROR(VLOOKUP(A11,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A11,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>{PAWN_title} {PAWN_nameDef}(이)가 탄 수송포드가 근처에 추락했습니다.</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" t="e">
+        <f>VLOOKUP(A11,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>{PAWN_title} {PAWN_nameDef}(이)가 탄 수송포드가 근처에 추락했습니다.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1646,13 +1469,23 @@
       <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="G12" t="str">
-        <f>IFERROR(VLOOKUP(A12,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A12,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>rewardDescription-&gt;[joiner_age]살의 [joiner_title]인 [joiner_nameDef](이)가 당신에게 합류했습니다. [joiner_relationInfo]</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" t="e">
+        <f>VLOOKUP(A12,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>rewardDescription-&gt;[joiner_age]살의 [joiner_title]인 [joiner_nameDef](이)가 당신에게 합류했습니다. [joiner_relationInfo]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1665,13 +1498,23 @@
       <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="G13" t="str">
-        <f>IFERROR(VLOOKUP(A13,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A13,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>questName-&gt;재회 - [runnerIndef]</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" t="e">
+        <f>VLOOKUP(A13,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>questName-&gt;재회 - [runnerIndef]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1684,13 +1527,23 @@
       <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G14" t="str">
-        <f>IFERROR(VLOOKUP(A14,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A14,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>runnerIndef-&gt;[joiner_nameIndef]</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H14" t="e">
+        <f>VLOOKUP(A14,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>runnerIndef-&gt;[joiner_nameIndef]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1703,13 +1556,23 @@
       <c r="D15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="G15" t="str">
-        <f>IFERROR(VLOOKUP(A15,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A15,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>questDescription-&gt;[joiner_age]살의 [joiner_title] [joiner_nameDef](이)가 근처에서 연락을 해왔습니다. [joiner_pronoun](은)는 [enemyFaction_name]의 [enemyFaction_pawnsPlural]에게 쫓기고 있습니다!\n\n[joiner_pronoun]는 구조를 요청하며, [map_definite]에서 당신과 함께 하겠다고 제안했습니다. [joiner_relationInfo]\n\n만약 당신이 이를 받아들인다면 [joiner_objective] 뒤쫓아온 [enemyFaction_pawnsPluralDef](와)과 싸워야 합니다.\n[enemyFaction_pawnsPlural]의 추격대는 다음과 같습니다: \n\n[raid/raidPawnKinds]</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H15" t="e">
+        <f>VLOOKUP(A15,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>questDescription-&gt;[joiner_age]살의 [joiner_title] [joiner_nameDef](이)가 근처에서 연락을 해왔습니다. [joiner_pronoun](은)는 [enemyFaction_name]의 [enemyFaction_pawnsPlural]에게 쫓기고 있습니다!\n\n[joiner_pronoun]는 구조를 요청하며, [map_definite]에서 당신과 함께 하겠다고 제안했습니다. [joiner_relationInfo]\n\n만약 당신이 이를 받아들인다면 [joiner_objective] 뒤쫓아온 [enemyFaction_pawnsPluralDef](와)과 싸워야 합니다.\n[enemyFaction_pawnsPlural]의 추격대는 다음과 같습니다: \n\n[raid/raidPawnKinds]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1722,13 +1585,23 @@
       <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="G16" t="str">
-        <f>IFERROR(VLOOKUP(A16,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+      <c r="E16" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" t="e">
+        <f>VLOOKUP(A16,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="e">
+        <f>VLOOKUP(A16,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1741,13 +1614,23 @@
       <c r="D17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="G17" t="str">
-        <f>IFERROR(VLOOKUP(A17,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A17,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>questName-&gt;재회 - [refugee_nameDef]</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" t="e">
+        <f>VLOOKUP(A17,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>questName-&gt;재회 - [refugee_nameDef]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1760,13 +1643,23 @@
       <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="G18" t="str">
-        <f>IFERROR(VLOOKUP(A18,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A18,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>questDescription-&gt;[refugee_nameDef](이)가 도움을 요청했습니다. [refugee_pronoun](은)는 부상을 입어 움직일 수 없습니다.\n\n[refugee_nameDef](은)는 [refugee_age]살의 [refugee_title]입니다. [refugee_objective] 구조해주면 [refugee_pronoun]는 당신의 세력에 합류할 것을 약속했습니다.\n\n[refugee_nameDef](이)가 말하길 [allSitePartsDescriptionsExceptFirst]이 있다고 합니다.\n[pawnInvolvedInQuestInfo]</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H18" t="e">
+        <f>VLOOKUP(A18,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>questDescription-&gt;[refugee_nameDef](이)가 도움을 요청했습니다. [refugee_pronoun](은)는 부상을 입어 움직일 수 없습니다.\n\n[refugee_nameDef](은)는 [refugee_age]살의 [refugee_title]입니다. [refugee_objective] 구조해주면 [refugee_pronoun]는 당신의 세력에 합류할 것을 약속했습니다.\n\n[refugee_nameDef](이)가 말하길 [allSitePartsDescriptionsExceptFirst]이 있다고 합니다.\n[pawnInvolvedInQuestInfo]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1779,13 +1672,23 @@
       <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G19" t="str">
-        <f>IFERROR(VLOOKUP(A19,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A19,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>pawnInvolvedInQuestInfo(priority=1)-&gt;[refugee_pawnInvolvedInQuestInfo]</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H19" t="e">
+        <f>VLOOKUP(A19,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>pawnInvolvedInQuestInfo(priority=1)-&gt;[refugee_pawnInvolvedInQuestInfo]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1800,11 +1703,19 @@
       </c>
       <c r="E20" s="8"/>
       <c r="G20" t="str">
-        <f>IFERROR(VLOOKUP(A20,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A20,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>pawnInvolvedInQuestInfo-&gt;</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H20" t="e">
+        <f>VLOOKUP(A20,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>pawnInvolvedInQuestInfo-&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -1817,13 +1728,23 @@
       <c r="D21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="G21" t="str">
-        <f>IFERROR(VLOOKUP(A21,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+      <c r="E21" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="e">
+        <f>VLOOKUP(A21,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <f>VLOOKUP(A21,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -1836,13 +1757,23 @@
       <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="G22" t="str">
-        <f>IFERROR(VLOOKUP(A22,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+      <c r="E22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="e">
+        <f>VLOOKUP(A22,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="e">
+        <f>VLOOKUP(A22,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -1855,13 +1786,23 @@
       <c r="D23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="G23" t="str">
-        <f>IFERROR(VLOOKUP(A23,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+      <c r="E23" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="e">
+        <f>VLOOKUP(A23,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H23" t="e">
+        <f>VLOOKUP(A23,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -1874,13 +1815,23 @@
       <c r="D24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="G24" t="str">
-        <f>IFERROR(VLOOKUP(A24,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+      <c r="E24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="e">
+        <f>VLOOKUP(A24,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="e">
+        <f>VLOOKUP(A24,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -1893,13 +1844,23 @@
       <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="G25" t="str">
-        <f>IFERROR(VLOOKUP(A25,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+      <c r="E25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="e">
+        <f>VLOOKUP(A25,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <f>VLOOKUP(A25,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -1912,13 +1873,23 @@
       <c r="D26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="G26" t="str">
-        <f>IFERROR(VLOOKUP(A26,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A26,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>questName-&gt;재회 - [prisoner_nameDef]</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" t="e">
+        <f>VLOOKUP(A26,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>questName-&gt;재회 - [prisoner_nameDef]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -1931,13 +1902,23 @@
       <c r="D27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="G27" t="str">
-        <f>IFERROR(VLOOKUP(A27,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A27,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>questDescription-&gt;[siteFaction_name]에게 붙잡힌 수감자가 무전기를 훔쳐서 당신에게 연락했습니다!\n\n[prisoner_nameDef](이)가 [map_definite] [underArmedGuard] 감옥에 붙잡혀 있습니다. [prisoner_objective] 구하면 [prisoner_pronoun]는 당신의 정착지에 합류할 것입니다. [prisoner_pronoun]는 [prisoner_age]살의 [prisoner_title]입니다.\n\n[prisoner_pronoun]가 말하길 [allSitePartsDescriptionsExceptFirst]이 있다고 합니다.\n[formerColonistInfo][prisonerFullRelationInfo]</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" t="e">
+        <f>VLOOKUP(A27,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>questDescription-&gt;[siteFaction_name]에게 붙잡힌 수감자가 무전기를 훔쳐서 당신에게 연락했습니다!\n\n[prisoner_nameDef](이)가 [map_definite] [underArmedGuard] 감옥에 붙잡혀 있습니다. [prisoner_objective] 구하면 [prisoner_pronoun]는 당신의 정착지에 합류할 것입니다. [prisoner_pronoun]는 [prisoner_age]살의 [prisoner_title]입니다.\n\n[prisoner_pronoun]가 말하길 [allSitePartsDescriptionsExceptFirst]이 있다고 합니다.\n[formerColonistInfo][prisonerFullRelationInfo]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -1950,13 +1931,23 @@
       <c r="D28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="G28" t="str">
-        <f>IFERROR(VLOOKUP(A28,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A28,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>formerColonistInfo(priority=1)-&gt;\n\n[prisoner_formerlyColonistInfo]</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" t="e">
+        <f>VLOOKUP(A28,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>formerColonistInfo(priority=1)-&gt;\n\n[prisoner_formerlyColonistInfo]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -1969,13 +1960,21 @@
       <c r="D29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="8"/>
       <c r="G29" t="str">
-        <f>IFERROR(VLOOKUP(A29,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A29,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>formerColonistInfo-&gt;</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H29" t="e">
+        <f>VLOOKUP(A29,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>formerColonistInfo-&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
@@ -1988,13 +1987,23 @@
       <c r="D30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G30" t="str">
-        <f>IFERROR(VLOOKUP(A30,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A30,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>underArmedGuard(allowViolentQuests==true,priority=1)-&gt;경비 구역 내의</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H30" t="e">
+        <f>VLOOKUP(A30,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>underArmedGuard(allowViolentQuests==true,priority=1)-&gt;경비 구역 내의</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -2009,11 +2018,19 @@
       </c>
       <c r="E31" s="8"/>
       <c r="G31" t="str">
-        <f>IFERROR(VLOOKUP(A31,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A31,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
         <v>underArmedGuard-&gt;</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H31" t="e">
+        <f>VLOOKUP(A31,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>underArmedGuard-&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
@@ -2026,13 +2043,23 @@
       <c r="D32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="G32" t="str">
-        <f>IFERROR(VLOOKUP(A32,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+      <c r="E32" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" t="e">
+        <f>VLOOKUP(A32,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
+        <f>VLOOKUP(A32,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
@@ -2045,13 +2072,23 @@
       <c r="D33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="G33" t="str">
-        <f>IFERROR(VLOOKUP(A33,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+      <c r="E33" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" t="e">
+        <f>VLOOKUP(A33,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
+        <f>VLOOKUP(A33,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
@@ -2059,248 +2096,378 @@
         <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" t="e">
+        <f>VLOOKUP(A34,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="str">
+        <f>VLOOKUP(A34,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>재회</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>재회</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G34" t="str">
-        <f>IFERROR(VLOOKUP(A34,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" t="e">
+        <f>VLOOKUP(A35,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H35" t="str">
+        <f>VLOOKUP(A35,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>우린 다시 만나게 될 겁니다.</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>우린 다시 만나게 될 겁니다.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="G35" t="str">
-        <f>IFERROR(VLOOKUP(A35,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+      <c r="C36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(A36,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>최소 생성 확률 (X/100)</v>
+      </c>
+      <c r="H36" t="e">
+        <f>VLOOKUP(A36,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>최소 생성 확률 (X/100)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(A37,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>생성 실패 후 증가할 확률 (X/100)</v>
+      </c>
+      <c r="H37" t="e">
+        <f>VLOOKUP(A37,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>생성 실패 후 증가할 확률 (X/100)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" t="e">
+        <f>VLOOKUP(A38,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H38" t="e">
+        <f>VLOOKUP(A38,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="G36" t="str">
-        <f>IFERROR(VLOOKUP(A36,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v>최소 생성 확률 (X/100)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="G37" t="str">
-        <f>IFERROR(VLOOKUP(A37,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v>생성 실패 후 증가할 확률 (X/100)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="G38" t="str">
-        <f>IFERROR(VLOOKUP(A38,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(A39,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>사건간의 최소 일수</v>
+      </c>
+      <c r="H39" t="e">
+        <f>VLOOKUP(A39,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>사건간의 최소 일수</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="G39" t="str">
-        <f>IFERROR(VLOOKUP(A39,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v>사건간의 최소 일수</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(A40,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>사건간의 최대 일수</v>
+      </c>
+      <c r="H40" t="e">
+        <f>VLOOKUP(A40,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>사건간의 최대 일수</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="G40" t="str">
-        <f>IFERROR(VLOOKUP(A40,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v>사건간의 최대 일수</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(A41,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>방랑자 합류" 사건 허용"</v>
+      </c>
+      <c r="H41" t="e">
+        <f>VLOOKUP(A41,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>방랑자 합류" 사건 허용"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="G41" t="str">
-        <f>IFERROR(VLOOKUP(A41,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v>방랑자 합류" 사건 허용"</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(A42,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>수송포드 추락" 사건 허용"</v>
+      </c>
+      <c r="H42" t="e">
+        <f>VLOOKUP(A42,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>수송포드 추락" 사건 허용"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="G42" t="str">
-        <f>IFERROR(VLOOKUP(A42,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v>수송포드 추락" 사건 허용"</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(A43,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>쫓기는 난민" 사건 허용"</v>
+      </c>
+      <c r="H43" t="e">
+        <f>VLOOKUP(A43,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>쫓기는 난민" 사건 허용"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="G43" t="str">
-        <f>IFERROR(VLOOKUP(A43,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v>쫓기는 난민" 사건 허용"</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(A44,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>죄수 구조" 사건 허용"</v>
+      </c>
+      <c r="H44" t="e">
+        <f>VLOOKUP(A44,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>죄수 구조" 사건 허용"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="G44" t="str">
-        <f>IFERROR(VLOOKUP(A44,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v>죄수 구조" 사건 허용"</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(A45,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>무력화된 난민" 사건 허용"</v>
+      </c>
+      <c r="H45" t="e">
+        <f>VLOOKUP(A45,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>무력화된 난민" 사건 허용"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="G45" t="str">
-        <f>IFERROR(VLOOKUP(A45,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
-        <v>무력화된 난민" 사건 허용"</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="G46" t="str">
-        <f>IFERROR(VLOOKUP(A46,Merge_RKTM!$C$2:$D$43,2,FALSE),"")</f>
+        <f>VLOOKUP(A46,Merge_RKTM!$C$2:$D$43,2,FALSE)</f>
+        <v>혼자일 때에도 지도 밖의 사건 활성화</v>
+      </c>
+      <c r="H46" t="e">
+        <f>VLOOKUP(A46,Merge_RimKr!$C$2:$D$3,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
         <v>혼자일 때에도 지도 밖의 사건 활성화</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2309,7 +2476,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2322,25 +2489,25 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" t="str">
         <f>IF(B2="",A2,B2)</f>
         <v>Keyed+Reunion.MinimumProbability</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2">
         <f>IF(ISERROR(B2),"",MATCH(A2,Sheet!$A$2:$A$46,0))</f>
@@ -2349,14 +2516,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C43" si="0">IF(B3="",A3,B3)</f>
         <v>Keyed+Reunion.ProbabilityIncrementStep</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3">
         <f>IF(ISERROR(B3),"",MATCH(A3,Sheet!$A$2:$A$46,0))</f>
@@ -2365,14 +2532,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>Keyed+Reunion.MinDaysBetweenEvents</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <f>IF(ISERROR(B4),"",MATCH(A4,Sheet!$A$2:$A$46,0))</f>
@@ -2381,14 +2548,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Keyed+Reunion.MaxDaysBetweenEvents</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E5">
         <f>IF(ISERROR(B5),"",MATCH(A5,Sheet!$A$2:$A$46,0))</f>
@@ -2397,14 +2564,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Keyed+Reunion.AllowEventWandererJoins</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E6">
         <f>IF(ISERROR(B6),"",MATCH(A6,Sheet!$A$2:$A$46,0))</f>
@@ -2413,14 +2580,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>Keyed+Reunion.AllowEventRefugeePodCrash</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <f>IF(ISERROR(B7),"",MATCH(A7,Sheet!$A$2:$A$46,0))</f>
@@ -2429,14 +2596,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>Keyed+Reunion.AllowEventRefugeeChased</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E8">
         <f>IF(ISERROR(B8),"",MATCH(A8,Sheet!$A$2:$A$46,0))</f>
@@ -2445,14 +2612,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Keyed+Reunion.AllowEventPrisonerRescue</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9">
         <f>IF(ISERROR(B9),"",MATCH(A9,Sheet!$A$2:$A$46,0))</f>
@@ -2461,14 +2628,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Keyed+Reunion.AllowEventDownedRefugee</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E10">
         <f>IF(ISERROR(B10),"",MATCH(A10,Sheet!$A$2:$A$46,0))</f>
@@ -2477,14 +2644,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>Keyed+Reunion.EnableHarderSolo</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11">
         <f>IF(ISERROR(B11),"",MATCH(A11,Sheet!$A$2:$A$46,0))</f>
@@ -2500,7 +2667,7 @@
         <v>IncidentDef+Reunion_AllyJoin.label</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12">
         <f>IF(ISERROR(B12),"",MATCH(A12,Sheet!$A$2:$A$46,0))</f>
@@ -2516,7 +2683,7 @@
         <v>IncidentDef+Reunion_AllyJoin.letterLabel</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E13">
         <f>IF(ISERROR(B13),"",MATCH(A13,Sheet!$A$2:$A$46,0))</f>
@@ -2532,7 +2699,7 @@
         <v>IncidentDef+Reunion_AllyJoin.letterText</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <f>IF(ISERROR(B14),"",MATCH(A14,Sheet!$A$2:$A$46,0))</f>
@@ -2548,7 +2715,7 @@
         <v>IncidentDef+Reunion_AllyRefugeePod.label</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E15">
         <f>IF(ISERROR(B15),"",MATCH(A15,Sheet!$A$2:$A$46,0))</f>
@@ -2564,7 +2731,7 @@
         <v>IncidentDef+Reunion_AllyRefugeePod.letterLabel</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16">
         <f>IF(ISERROR(B16),"",MATCH(A16,Sheet!$A$2:$A$46,0))</f>
@@ -2580,7 +2747,7 @@
         <v>IncidentDef+Reunion_AllyRefugeePod.letterText</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17">
         <f>IF(ISERROR(B17),"",MATCH(A17,Sheet!$A$2:$A$46,0))</f>
@@ -2596,7 +2763,7 @@
         <v>QuestScriptDef+Reunion_AllyJoinerWalkIn.questDescriptionRules.rulesStrings.0</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E18">
         <f>IF(ISERROR(B18),"",MATCH(A18,Sheet!$A$2:$A$46,0))</f>
@@ -2605,7 +2772,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" t="e">
         <f>NA()</f>
@@ -2616,7 +2783,7 @@
         <v>#N/A</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E19" t="str">
         <f>IF(ISERROR(B19),"",MATCH(A19,Sheet!$A$2:$A$46,0))</f>
@@ -2625,7 +2792,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" t="e">
         <f>NA()</f>
@@ -2636,7 +2803,7 @@
         <v>#N/A</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E20" t="str">
         <f>IF(ISERROR(B20),"",MATCH(A20,Sheet!$A$2:$A$46,0))</f>
@@ -2652,7 +2819,7 @@
         <v>QuestScriptDef+Reunion_AllyChased.questNameRules.rulesStrings.0</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21">
         <f>IF(ISERROR(B21),"",MATCH(A21,Sheet!$A$2:$A$46,0))</f>
@@ -2684,7 +2851,7 @@
         <v>QuestScriptDef+Reunion_AllyChased.questDescriptionRules.rulesStrings.0</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E23">
         <f>IF(ISERROR(B23),"",MATCH(A23,Sheet!$A$2:$A$46,0))</f>
@@ -2693,14 +2860,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>QuestScriptDef+Reunion_AllyChased.root.nodes.Delay-0.node.parms.customLetterLabel.value.slateRef</v>
       </c>
       <c r="D24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E24" t="e">
         <f>IF(ISERROR(B24),"",MATCH(A24,Sheet!$A$2:$A$46,0))</f>
@@ -2709,14 +2876,14 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>QuestScriptDef+Reunion_AllyChased.root.nodes.Delay-0.node.parms.customLetterText.value.slateRef</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E25" t="e">
         <f>IF(ISERROR(B25),"",MATCH(A25,Sheet!$A$2:$A$46,0))</f>
@@ -2732,7 +2899,7 @@
         <v>QuestScriptDef+Reunion_DownedRefugee.questNameRules.rulesStrings.0</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26">
         <f>IF(ISERROR(B26),"",MATCH(A26,Sheet!$A$2:$A$46,0))</f>
@@ -2748,7 +2915,7 @@
         <v>QuestScriptDef+Reunion_DownedRefugee.questDescriptionRules.rulesStrings.0</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E27">
         <f>IF(ISERROR(B27),"",MATCH(A27,Sheet!$A$2:$A$46,0))</f>
@@ -2789,14 +2956,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>QuestScriptDef+Reunion_DownedRefugee.root.nodes.WorldObjectTimeout.node.nodes.Letter.label.slateRef</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E30" t="e">
         <f>IF(ISERROR(B30),"",MATCH(A30,Sheet!$A$2:$A$46,0))</f>
@@ -2805,14 +2972,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>QuestScriptDef+Reunion_DownedRefugee.root.nodes.WorldObjectTimeout.node.nodes.Letter.text.slateRef</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E31" t="e">
         <f>IF(ISERROR(B31),"",MATCH(A31,Sheet!$A$2:$A$46,0))</f>
@@ -2828,7 +2995,7 @@
         <v>QuestScriptDef+Reunion_PrisonerRescue.questNameRules.rulesStrings.0</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E32">
         <f>IF(ISERROR(B32),"",MATCH(A32,Sheet!$A$2:$A$46,0))</f>
@@ -2844,7 +3011,7 @@
         <v>QuestScriptDef+Reunion_PrisonerRescue.questDescriptionRules.rulesStrings.0</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E33">
         <f>IF(ISERROR(B33),"",MATCH(A33,Sheet!$A$2:$A$46,0))</f>
@@ -2892,7 +3059,7 @@
         <v>QuestScriptDef+Reunion_PrisonerRescue.questDescriptionRules.rulesStrings.3</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E36">
         <f>IF(ISERROR(B36),"",MATCH(A36,Sheet!$A$2:$A$46,0))</f>
@@ -2924,7 +3091,7 @@
         <v>SitePartDef+Reunion_DownedRefugee.label</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E38">
         <f>IF(ISERROR(B38),"",MATCH(A38,Sheet!$A$2:$A$46,0))</f>
@@ -2940,7 +3107,7 @@
         <v>SitePartDef+Reunion_DownedRefugee.description</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E39">
         <f>IF(ISERROR(B39),"",MATCH(A39,Sheet!$A$2:$A$46,0))</f>
@@ -2956,7 +3123,7 @@
         <v>SitePartDef+Reunion_PrisonerRescue.label</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E40">
         <f>IF(ISERROR(B40),"",MATCH(A40,Sheet!$A$2:$A$46,0))</f>
@@ -2972,7 +3139,7 @@
         <v>SitePartDef+Reunion_PrisonerRescue.description</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E41">
         <f>IF(ISERROR(B41),"",MATCH(A41,Sheet!$A$2:$A$46,0))</f>
@@ -2981,14 +3148,14 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>TraitDef+ReunionCharacter.degreeDatas.Reunion_Ally.label</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E42" t="e">
         <f>IF(ISERROR(B42),"",MATCH(A42,Sheet!$A$2:$A$46,0))</f>
@@ -2997,18 +3164,53 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>TraitDef+ReunionCharacter.degreeDatas.Reunion_Ally.description</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E43" t="e">
         <f>IF(ISERROR(B43),"",MATCH(A43,Sheet!$A$2:$A$46,0))</f>
         <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE08BC8-137F-480B-9EBB-B4A8C59257CE}">
+  <dimension ref="C2:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="48.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
